--- a/biology/Botanique/Nepenthaceae/Nepenthaceae.xlsx
+++ b/biology/Botanique/Nepenthaceae/Nepenthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille monotypique des Népenthacées regroupe des plantes dicotylédones ; elle comprend au moins 86[1] espèces dans un seul genre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille monotypique des Népenthacées regroupe des plantes dicotylédones ; elle comprend au moins 86 espèces dans un seul genre.
 La majeure partie sont des lianes, pouvant être épiphytes à mécanisme de capture passif, des régions tropicales : Seychelles (Nepenthes pervillei), Madagascar (Nepenthes masoalensis et Nepenthes madagascariensis), Inde (Nepenthes khasiana), péninsule indomalaise, Bornéo, Sumatra, Java, Ceylan, Australie et Nouvelle-Calédonie.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Nepenthes construction faite à partir du grec νε / ne, non, et πενθές / penthes, deuil, la « nepenthe » étant ainsi une plante censée chasser la tristesse, un antidépresseur ou une drogue de l'oubli. Le nom fut déjà utilisé dans l'Odyssée de Homère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Nepenthes construction faite à partir du grec νε / ne, non, et πενθές / penthes, deuil, la « nepenthe » étant ainsi une plante censée chasser la tristesse, un antidépresseur ou une drogue de l'oubli. Le nom fut déjà utilisé dans l'Odyssée de Homère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique[3] situe cette famille dans l'ordre des Caryophyllales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Caryophyllales.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (3 mai 2010)[4], NCBI  (3 mai 2010)[5] et ITIS      (3 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (3 mai 2010), NCBI  (3 mai 2010) et ITIS      (3 mai 2010) :
 genre Nepenthes L.
-Selon DELTA Angio           (3 mai 2010)[7] :
+Selon DELTA Angio           (3 mai 2010) :
 genre Anurosperma
 genre Nepenthes
-Le genre Anurosperma[8], monospécifique, avec Anurosperma pervillei comme seule espèce a été repositionné parmi le genre Nepenthes sous le nom Nepenthes pervillei
+Le genre Anurosperma, monospécifique, avec Anurosperma pervillei comme seule espèce a été repositionné parmi le genre Nepenthes sous le nom Nepenthes pervillei
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 mai 2010) :
 genre Nepenthes
 Nepenthes adnata
 Nepenthes alata
